--- a/src/shopping-mall/訂單.xlsx
+++ b/src/shopping-mall/訂單.xlsx
@@ -17,28 +17,28 @@
     <t>訂單編號</t>
   </si>
   <si>
-    <t>S202502210002</t>
+    <t>S202502210003</t>
   </si>
   <si>
-    <t>您的名字是</t>
+    <t>顧客姓名</t>
   </si>
   <si>
-    <t>顧客艾米斯</t>
+    <t>顧客管理員</t>
   </si>
   <si>
     <t>產品名稱</t>
   </si>
   <si>
-    <t>Asus 輕薄筆電</t>
+    <t>雷蛇鍵盤</t>
   </si>
   <si>
     <t>產品售價</t>
   </si>
   <si>
-    <t>46888</t>
+    <t>1999</t>
   </si>
   <si>
-    <t>數量</t>
+    <t>產品數量</t>
   </si>
   <si>
     <t>3</t>
@@ -53,7 +53,7 @@
     <t>成交金額</t>
   </si>
   <si>
-    <t>46888 元 x 3 x 0.9 = 126597 元</t>
+    <t>1999 元 x 3 x 0.9 = 5397 元</t>
   </si>
 </sst>
 </file>
@@ -104,8 +104,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="6.61328125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="26.4140625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="6.20703125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="23.0703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
